--- a/Hamburgueria - PC/Excel/vendasMensais.xlsx
+++ b/Hamburgueria - PC/Excel/vendasMensais.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamburgueria\Hamburgueria - PC\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF5BBBF-E3DF-4EFA-9C2C-4AEAB667895F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9C49AA-8187-47A9-AF77-710B028FFBFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{D909301A-0A1A-4676-9C49-DA732D30D430}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{D909301A-0A1A-4676-9C49-DA732D30D430}"/>
   </bookViews>
   <sheets>
     <sheet name="TODAS" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t>BIG BURGER</t>
   </si>
@@ -62,13 +62,13 @@
     <t>TOTAL  BRUTO</t>
   </si>
   <si>
-    <t>VENDAS SEMANAIS</t>
-  </si>
-  <si>
     <t>DELIVERY</t>
   </si>
   <si>
-    <t>VENDAS MENSAL</t>
+    <t>VENDAS MENSAIS</t>
+  </si>
+  <si>
+    <t>OBS: Imprimir tabela em modo paisagem</t>
   </si>
 </sst>
 </file>
@@ -159,40 +159,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -509,24 +512,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4D1174-ADF8-4B54-98B5-30D4CE6C3215}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="3" t="s">
@@ -538,7 +541,7 @@
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -557,7 +560,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" s="9">
         <f>SUM(C3:C1048576)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -569,12 +572,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
       <c r="E6" s="9">
         <f>SUM(B3:B1048576)</f>
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -588,32 +588,26 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="9">
         <f>SUM(D3:D1048576)</f>
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
       <c r="E10" s="10"/>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="12"/>
+    </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="6">
-        <v>4</v>
-      </c>
+      <c r="E13" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="E11:E13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E6:E7"/>
@@ -627,34 +621,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1E131B-9828-4AE9-BAD4-E06ABA8D8D47}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="4" width="16.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="7" customWidth="1"/>
+    <col min="2" max="4" width="16.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -673,7 +667,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" s="9">
         <f>SUM(C3:C1048576)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -687,7 +681,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6" s="9">
         <f>SUM(B3:B1048576)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -701,25 +695,26 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="9">
         <f>SUM(D3:D1048576)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" s="10"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
-        <v>2</v>
-      </c>
-      <c r="C18" s="7">
-        <v>2</v>
-      </c>
-      <c r="D18" s="7">
-        <v>2</v>
-      </c>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="E11:E13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="E3:E4"/>
@@ -733,34 +728,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DF6B7A-FE45-431E-9DA7-805EBCF4888D}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="4" width="16.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="7" customWidth="1"/>
+    <col min="2" max="4" width="16.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -779,22 +774,13 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" s="9">
         <f>SUM(C3:C1048576)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2</v>
-      </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,7 +788,7 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6" s="9">
         <f>SUM(B3:B1048576)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -816,14 +802,26 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="9">
         <f>SUM(D3:D1048576)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" s="10"/>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="E11:E13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="E3:E4"/>

--- a/Hamburgueria - PC/Excel/vendasMensais.xlsx
+++ b/Hamburgueria - PC/Excel/vendasMensais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hamburgueria\Hamburgueria - PC\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9C49AA-8187-47A9-AF77-710B028FFBFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF15BEC-D567-4106-A112-7AD63ABDDBE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{D909301A-0A1A-4676-9C49-DA732D30D430}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{D909301A-0A1A-4676-9C49-DA732D30D430}"/>
   </bookViews>
   <sheets>
     <sheet name="TODAS" sheetId="1" r:id="rId1"/>
@@ -164,38 +164,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -514,43 +514,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4D1174-ADF8-4B54-98B5-30D4CE6C3215}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -558,13 +558,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <f>SUM(C3:C1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" s="10"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
@@ -572,13 +572,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <f>SUM(B3:B1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="10"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
@@ -586,24 +586,24 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <f>SUM(D3:D1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="10"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="12"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="12"/>
+      <c r="E13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -624,40 +624,40 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="7" customWidth="1"/>
-    <col min="2" max="4" width="16.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="3" customWidth="1"/>
+    <col min="2" max="4" width="16.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -665,13 +665,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <f>SUM(C3:C1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" s="10"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
@@ -679,13 +679,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <f>SUM(B3:B1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="10"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
@@ -693,24 +693,24 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <f>SUM(D3:D1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="10"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="12"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="12"/>
+      <c r="E13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -730,41 +730,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DF6B7A-FE45-431E-9DA7-805EBCF4888D}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="7" customWidth="1"/>
-    <col min="2" max="4" width="16.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="3" customWidth="1"/>
+    <col min="2" max="4" width="16.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -772,13 +772,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <f>SUM(C3:C1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" s="10"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
@@ -786,13 +786,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <f>SUM(B3:B1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="10"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
@@ -800,24 +800,24 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <f>SUM(D3:D1048576)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="10"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="12"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="12"/>
+      <c r="E13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
